--- a/Results/Fixed_optRetrofit_randTornado/15M-2.xlsx
+++ b/Results/Fixed_optRetrofit_randTornado/15M-2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\Results\Fixed_optRetrofit_randTornado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2A918553-F5EF-4AC8-97CE-19531410DC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42C6805-6F48-409D-8DC0-086D61821EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
-    <sheet name="15M-2" sheetId="1" r:id="rId1"/>
+    <sheet name="2022-10-22_19-22-07_Joplin_100C" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -667,7 +667,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA51792A-2151-50D9-31F9-8AECB7EAAE6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5B4DE9-7238-0B09-69AD-A5C5B300AB94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -996,7 +996,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6635</v>
+        <v>12654</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1028,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6635</v>
+        <v>12720</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1036,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12.78</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1060,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>12.59</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1076,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.28000000000000003</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1100,10 +1100,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-94.548000000000002</v>
+        <v>-94.488</v>
       </c>
       <c r="C12">
-        <v>37.076000000000001</v>
+        <v>37.125999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1111,10 +1111,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-94.481999999999999</v>
+        <v>-94.489000000000004</v>
       </c>
       <c r="C13">
-        <v>37.026000000000003</v>
+        <v>37.052999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1340,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1514,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1572,13 +1572,13 @@
         <v>318522</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1688,13 +1688,13 @@
         <v>488172</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1804,13 +1804,13 @@
         <v>368587</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1920,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -2094,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2181,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2297,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2645,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -2877,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -2906,13 +2906,13 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2935,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2993,13 +2993,13 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -3022,13 +3022,13 @@
         <v>887341</v>
       </c>
       <c r="G80" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3051,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3109,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3138,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>801</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3225,13 +3225,13 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>533</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3254,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>636</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3312,13 +3312,13 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3341,13 +3341,13 @@
         <v>463642</v>
       </c>
       <c r="G91" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>757</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3370,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3399,13 +3399,13 @@
         <v>152699</v>
       </c>
       <c r="G93" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>5344395</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3428,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>955</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
